--- a/Artificial Intelligence Stuff/Reasoning/Fuzzy Logic/rules.xlsx
+++ b/Artificial Intelligence Stuff/Reasoning/Fuzzy Logic/rules.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="19">
   <si>
     <t>hutang\peng</t>
   </si>
@@ -45,6 +45,42 @@
   </si>
   <si>
     <t>acc</t>
+  </si>
+  <si>
+    <t>vh</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>vl</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>hutang/penghasilan</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>very high</t>
+  </si>
+  <si>
+    <t>very low</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>h\p</t>
+  </si>
+  <si>
+    <t>r</t>
   </si>
 </sst>
 </file>
@@ -60,15 +96,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -76,12 +130,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -362,18 +435,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="D11" sqref="A7:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -387,9 +460,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -401,9 +474,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -415,9 +488,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -426,10 +499,143 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>